--- a/data/SM_params.xlsx
+++ b/data/SM_params.xlsx
@@ -1,37 +1,189 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>A_s</t>
+  </si>
+  <si>
+    <t>B_s</t>
+  </si>
+  <si>
+    <t>C_s</t>
+  </si>
+  <si>
+    <t>N_s</t>
+  </si>
+  <si>
+    <t>A_r</t>
+  </si>
+  <si>
+    <t>B_r</t>
+  </si>
+  <si>
+    <t>C_r</t>
+  </si>
+  <si>
+    <t>N_r</t>
+  </si>
+  <si>
+    <t>A_h</t>
+  </si>
+  <si>
+    <t>B_h</t>
+  </si>
+  <si>
+    <t>C_h</t>
+  </si>
+  <si>
+    <t>F_o</t>
+  </si>
+  <si>
+    <t>A_o</t>
+  </si>
+  <si>
+    <t>B_o</t>
+  </si>
+  <si>
+    <t>C_o</t>
+  </si>
+  <si>
+    <t>N_o</t>
+  </si>
+  <si>
+    <t>rss</t>
+  </si>
+  <si>
+    <t>WT</t>
+  </si>
+  <si>
+    <t>Output1</t>
+  </si>
+  <si>
+    <t>Output10</t>
+  </si>
+  <si>
+    <t>Output2</t>
+  </si>
+  <si>
+    <t>Output3</t>
+  </si>
+  <si>
+    <t>Output4</t>
+  </si>
+  <si>
+    <t>Output5</t>
+  </si>
+  <si>
+    <t>Output6</t>
+  </si>
+  <si>
+    <t>Output7</t>
+  </si>
+  <si>
+    <t>Output8</t>
+  </si>
+  <si>
+    <t>Output9</t>
+  </si>
+  <si>
+    <t>Regulator1</t>
+  </si>
+  <si>
+    <t>Regulator10</t>
+  </si>
+  <si>
+    <t>Regulator2</t>
+  </si>
+  <si>
+    <t>Regulator3</t>
+  </si>
+  <si>
+    <t>Regulator4</t>
+  </si>
+  <si>
+    <t>Regulator5</t>
+  </si>
+  <si>
+    <t>Regulator6</t>
+  </si>
+  <si>
+    <t>Regulator7</t>
+  </si>
+  <si>
+    <t>Regulator8</t>
+  </si>
+  <si>
+    <t>Regulator9</t>
+  </si>
+  <si>
+    <t>Sensor1</t>
+  </si>
+  <si>
+    <t>Sensor10</t>
+  </si>
+  <si>
+    <t>Sensor2</t>
+  </si>
+  <si>
+    <t>Sensor3</t>
+  </si>
+  <si>
+    <t>Sensor4</t>
+  </si>
+  <si>
+    <t>Sensor5</t>
+  </si>
+  <si>
+    <t>Sensor6</t>
+  </si>
+  <si>
+    <t>Sensor7</t>
+  </si>
+  <si>
+    <t>Sensor8</t>
+  </si>
+  <si>
+    <t>Sensor9</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +198,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,745 +514,1803 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:R12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>A_s</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>B_s</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>C_s</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>N_s</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>A_r</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>B_r</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>C_r</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>N_r</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>A_h</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>B_h</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>C_h</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>F_o</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>A_o</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>B_o</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>C_o</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>N_o</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>rss</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>WT</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:18">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
         <v>618.047086</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>16278.8566</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1300.65379</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>1.09654125</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1916.17561</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>18874.2408</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>0.009030179879999999</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>0.82043334</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>683.835638</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>32464.3802</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>0.000473376905</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>2.82135165</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>0.632148081</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>0.97276821</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>2.64017386</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>1.91933916</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>0.07854447042346606</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Output1</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
         <v>618.047086</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>16278.8566</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1300.65379</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1.09654125</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1916.17561</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>18874.2408</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.009030179879999999</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.82043334</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>518.9110962634209</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>39517.81148200434</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>0.0007493088579161803</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>3.661622410155102</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>0.3860889965758912</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>0.6743664405620021</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>2.006742347820719</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>1.63100664826338</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>0.06278017594184845</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Output10</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
         <v>618.047086</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>16278.8566</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1300.65379</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>1.09654125</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>1916.17561</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>18874.2408</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.009030179879999999</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.82043334</v>
       </c>
-      <c r="J4" t="n">
-        <v>1022.617860326749</v>
-      </c>
-      <c r="K4" t="n">
-        <v>39736.44788378772</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.0008113066675791889</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.409146378695159</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.1540695169354873</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.589531311176266</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.978370474558323</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.336988045934306</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.06577890561951673</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Output2</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="J4">
+        <v>1022.617867731102</v>
+      </c>
+      <c r="K4">
+        <v>39736.44766735817</v>
+      </c>
+      <c r="L4">
+        <v>0.000811306661178812</v>
+      </c>
+      <c r="M4">
+        <v>1.409146386698356</v>
+      </c>
+      <c r="N4">
+        <v>0.154069519790159</v>
+      </c>
+      <c r="O4">
+        <v>1.589531305740261</v>
+      </c>
+      <c r="P4">
+        <v>3.978370473563792</v>
+      </c>
+      <c r="Q4">
+        <v>1.336988049804221</v>
+      </c>
+      <c r="R4">
+        <v>0.0657789056195167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
         <v>618.047086</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>16278.8566</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>1300.65379</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>1.09654125</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>1916.17561</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>18874.2408</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>0.009030179879999999</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.82043334</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>3709.320721399855</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>39735.55514330494</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>0.000438669619043436</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>4.0624825923493</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>0.203306196162958</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>0.6606418630916951</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>3.550410719470588</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>1.514834070517038</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>0.05811516974101728</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Output3</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:18">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
         <v>618.047086</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>16278.8566</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1300.65379</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>1.09654125</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>1916.17561</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>18874.2408</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>0.009030179879999999</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.82043334</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>203.4381386364732</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>46032.87416221753</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>0.001093984090010611</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>1.066046874365875</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>0.9681420628210642</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>2.429359406875083</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>2.72381301060094</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>1.452677867925933</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>0.08061825902581492</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Output4</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
         <v>618.047086</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>16278.8566</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>1300.65379</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>1.09654125</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1916.17561</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>18874.2408</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>0.009030179879999999</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.82043334</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>246.6966969506049</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>38544.68049927839</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>0.0008291328587086649</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>1.665449055695461</v>
       </c>
-      <c r="N7" t="n">
-        <v>1.549369043499642e-13</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="N7">
+        <v>1.549369043499642E-13</v>
+      </c>
+      <c r="O7">
         <v>1.606324832969565</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>2.277926460056732</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>1.425668519715305</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>0.07174981301743372</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Output5</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
         <v>618.047086</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>16278.8566</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>1300.65379</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>1.09654125</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1916.17561</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>18874.2408</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>0.009030179879999999</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.82043334</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>727.4517315631504</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>27278.66479322647</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>0.0003479915756795482</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>2.874033896711238</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>0.2205886609108449</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>1.255844381307788</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>2.925689358385263</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>2.081596260845358</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>0.07762093138095393</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Output6</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
         <v>618.047086</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>16278.8566</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>1300.65379</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>1.09654125</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>1916.17561</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>18874.2408</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0.009030179879999999</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0.82043334</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>589.3293608868282</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>44777.30430005206</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>0.0008604974444306392</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>2.004103005196062</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>0.2798534357767145</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>1.784774346942646</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>2.734405019097403</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>1.631270740804077</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>0.06313552754175704</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Output7</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:18">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
         <v>618.047086</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>16278.8566</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>1300.65379</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>1.09654125</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>1916.17561</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>18874.2408</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0.009030179879999999</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.82043334</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>1007.951676509466</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>40593.84507103937</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>0.0004827849251342911</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>1.756364282879236</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>0.7436382630259757</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>1.664933544330224</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>2.942593485132162</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>1.673907436390056</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>0.06622786767839223</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Output8</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:18">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
         <v>618.047086</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>16278.8566</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>1300.65379</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>1.09654125</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>1916.17561</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>18874.2408</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>0.009030179879999999</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.82043334</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>632.150843685517</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>18292.37841118241</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>0.0002823202272170973</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>5.062407539190438</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>0.002672534998129796</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>0.5126861788336272</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>3.307533972537997</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>1.336832439811926</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>0.05761003114295259</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Output9</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:18">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
         <v>618.047086</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>16278.8566</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>1300.65379</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>1.09654125</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>1916.17561</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>18874.2408</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>0.009030179879999999</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>0.82043334</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>738.6360795974418</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>28907.78306571308</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>0.0004200837110908699</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>2.4432313369763</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>0.164985792019078</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>1.330711177895712</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>2.828137354396626</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>1.593747207784472</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>0.05881648055522946</v>
       </c>
     </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>618.047086</v>
+      </c>
+      <c r="C13">
+        <v>16278.8566</v>
+      </c>
+      <c r="D13">
+        <v>1300.65379</v>
+      </c>
+      <c r="E13">
+        <v>1.09654125</v>
+      </c>
+      <c r="F13">
+        <v>7460.008266298828</v>
+      </c>
+      <c r="G13">
+        <v>20603.59554331632</v>
+      </c>
+      <c r="H13">
+        <v>0.0006611408432974849</v>
+      </c>
+      <c r="I13">
+        <v>2.638466047107052</v>
+      </c>
+      <c r="J13">
+        <v>683.835638</v>
+      </c>
+      <c r="K13">
+        <v>32464.3802</v>
+      </c>
+      <c r="L13">
+        <v>0.000473376905</v>
+      </c>
+      <c r="M13">
+        <v>4.567692617873</v>
+      </c>
+      <c r="N13">
+        <v>0.632148081</v>
+      </c>
+      <c r="O13">
+        <v>0.97276821</v>
+      </c>
+      <c r="P13">
+        <v>2.64017386</v>
+      </c>
+      <c r="Q13">
+        <v>1.91933916</v>
+      </c>
+      <c r="R13">
+        <v>0.2254128291479915</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>618.047086</v>
+      </c>
+      <c r="C14">
+        <v>16278.8566</v>
+      </c>
+      <c r="D14">
+        <v>1300.65379</v>
+      </c>
+      <c r="E14">
+        <v>1.09654125</v>
+      </c>
+      <c r="F14">
+        <v>4308.760580479633</v>
+      </c>
+      <c r="G14">
+        <v>5451.071532166965</v>
+      </c>
+      <c r="H14">
+        <v>0.0009812478036396945</v>
+      </c>
+      <c r="I14">
+        <v>2.091975804994048</v>
+      </c>
+      <c r="J14">
+        <v>683.835638</v>
+      </c>
+      <c r="K14">
+        <v>32464.3802</v>
+      </c>
+      <c r="L14">
+        <v>0.000473376905</v>
+      </c>
+      <c r="M14">
+        <v>2.496630798665679</v>
+      </c>
+      <c r="N14">
+        <v>0.632148081</v>
+      </c>
+      <c r="O14">
+        <v>0.97276821</v>
+      </c>
+      <c r="P14">
+        <v>2.64017386</v>
+      </c>
+      <c r="Q14">
+        <v>1.91933916</v>
+      </c>
+      <c r="R14">
+        <v>0.1114025990821328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>618.047086</v>
+      </c>
+      <c r="C15">
+        <v>16278.8566</v>
+      </c>
+      <c r="D15">
+        <v>1300.65379</v>
+      </c>
+      <c r="E15">
+        <v>1.09654125</v>
+      </c>
+      <c r="F15">
+        <v>4527.30903425528</v>
+      </c>
+      <c r="G15">
+        <v>3805.31755401863</v>
+      </c>
+      <c r="H15">
+        <v>0.0005881676002329416</v>
+      </c>
+      <c r="I15">
+        <v>3.97847129123833</v>
+      </c>
+      <c r="J15">
+        <v>683.835638</v>
+      </c>
+      <c r="K15">
+        <v>32464.3802</v>
+      </c>
+      <c r="L15">
+        <v>0.000473376905</v>
+      </c>
+      <c r="M15">
+        <v>5.207068569057331</v>
+      </c>
+      <c r="N15">
+        <v>0.632148081</v>
+      </c>
+      <c r="O15">
+        <v>0.97276821</v>
+      </c>
+      <c r="P15">
+        <v>2.64017386</v>
+      </c>
+      <c r="Q15">
+        <v>1.91933916</v>
+      </c>
+      <c r="R15">
+        <v>0.08472944292250377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>618.047086</v>
+      </c>
+      <c r="C16">
+        <v>16278.8566</v>
+      </c>
+      <c r="D16">
+        <v>1300.65379</v>
+      </c>
+      <c r="E16">
+        <v>1.09654125</v>
+      </c>
+      <c r="F16">
+        <v>5287.202309328243</v>
+      </c>
+      <c r="G16">
+        <v>15272.36007002407</v>
+      </c>
+      <c r="H16">
+        <v>0.001157100504129663</v>
+      </c>
+      <c r="I16">
+        <v>1.775479932790906</v>
+      </c>
+      <c r="J16">
+        <v>683.835638</v>
+      </c>
+      <c r="K16">
+        <v>32464.3802</v>
+      </c>
+      <c r="L16">
+        <v>0.000473376905</v>
+      </c>
+      <c r="M16">
+        <v>4.372628253569994</v>
+      </c>
+      <c r="N16">
+        <v>0.632148081</v>
+      </c>
+      <c r="O16">
+        <v>0.97276821</v>
+      </c>
+      <c r="P16">
+        <v>2.64017386</v>
+      </c>
+      <c r="Q16">
+        <v>1.91933916</v>
+      </c>
+      <c r="R16">
+        <v>0.1671651493678584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>618.047086</v>
+      </c>
+      <c r="C17">
+        <v>16278.8566</v>
+      </c>
+      <c r="D17">
+        <v>1300.65379</v>
+      </c>
+      <c r="E17">
+        <v>1.09654125</v>
+      </c>
+      <c r="F17">
+        <v>4087.027515790283</v>
+      </c>
+      <c r="G17">
+        <v>28593.64999770056</v>
+      </c>
+      <c r="H17">
+        <v>0.003594560990308733</v>
+      </c>
+      <c r="I17">
+        <v>1.249627101423398</v>
+      </c>
+      <c r="J17">
+        <v>683.835638</v>
+      </c>
+      <c r="K17">
+        <v>32464.3802</v>
+      </c>
+      <c r="L17">
+        <v>0.000473376905</v>
+      </c>
+      <c r="M17">
+        <v>4.949878255076694</v>
+      </c>
+      <c r="N17">
+        <v>0.632148081</v>
+      </c>
+      <c r="O17">
+        <v>0.97276821</v>
+      </c>
+      <c r="P17">
+        <v>2.64017386</v>
+      </c>
+      <c r="Q17">
+        <v>1.91933916</v>
+      </c>
+      <c r="R17">
+        <v>0.1577340143857024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>618.047086</v>
+      </c>
+      <c r="C18">
+        <v>16278.8566</v>
+      </c>
+      <c r="D18">
+        <v>1300.65379</v>
+      </c>
+      <c r="E18">
+        <v>1.09654125</v>
+      </c>
+      <c r="F18">
+        <v>4551.35362256089</v>
+      </c>
+      <c r="G18">
+        <v>5245.44732878323</v>
+      </c>
+      <c r="H18">
+        <v>0.0006529146409731363</v>
+      </c>
+      <c r="I18">
+        <v>2.794610045167823</v>
+      </c>
+      <c r="J18">
+        <v>683.835638</v>
+      </c>
+      <c r="K18">
+        <v>32464.3802</v>
+      </c>
+      <c r="L18">
+        <v>0.000473376905</v>
+      </c>
+      <c r="M18">
+        <v>5.839209532995151</v>
+      </c>
+      <c r="N18">
+        <v>0.632148081</v>
+      </c>
+      <c r="O18">
+        <v>0.97276821</v>
+      </c>
+      <c r="P18">
+        <v>2.64017386</v>
+      </c>
+      <c r="Q18">
+        <v>1.91933916</v>
+      </c>
+      <c r="R18">
+        <v>0.1200079480905416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>618.047086</v>
+      </c>
+      <c r="C19">
+        <v>16278.8566</v>
+      </c>
+      <c r="D19">
+        <v>1300.65379</v>
+      </c>
+      <c r="E19">
+        <v>1.09654125</v>
+      </c>
+      <c r="F19">
+        <v>5669.27212262313</v>
+      </c>
+      <c r="G19">
+        <v>15052.13241993643</v>
+      </c>
+      <c r="H19">
+        <v>0.0009673941265767877</v>
+      </c>
+      <c r="I19">
+        <v>1.436624831158118</v>
+      </c>
+      <c r="J19">
+        <v>683.835638</v>
+      </c>
+      <c r="K19">
+        <v>32464.3802</v>
+      </c>
+      <c r="L19">
+        <v>0.000473376905</v>
+      </c>
+      <c r="M19">
+        <v>7.039269597335687</v>
+      </c>
+      <c r="N19">
+        <v>0.632148081</v>
+      </c>
+      <c r="O19">
+        <v>0.97276821</v>
+      </c>
+      <c r="P19">
+        <v>2.64017386</v>
+      </c>
+      <c r="Q19">
+        <v>1.91933916</v>
+      </c>
+      <c r="R19">
+        <v>0.1587325406869715</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>618.047086</v>
+      </c>
+      <c r="C20">
+        <v>16278.8566</v>
+      </c>
+      <c r="D20">
+        <v>1300.65379</v>
+      </c>
+      <c r="E20">
+        <v>1.09654125</v>
+      </c>
+      <c r="F20">
+        <v>3463.589376608512</v>
+      </c>
+      <c r="G20">
+        <v>3979.658565161204</v>
+      </c>
+      <c r="H20">
+        <v>0.0005839417251067173</v>
+      </c>
+      <c r="I20">
+        <v>3.205443754635029</v>
+      </c>
+      <c r="J20">
+        <v>683.835638</v>
+      </c>
+      <c r="K20">
+        <v>32464.3802</v>
+      </c>
+      <c r="L20">
+        <v>0.000473376905</v>
+      </c>
+      <c r="M20">
+        <v>4.981346856415379</v>
+      </c>
+      <c r="N20">
+        <v>0.632148081</v>
+      </c>
+      <c r="O20">
+        <v>0.97276821</v>
+      </c>
+      <c r="P20">
+        <v>2.64017386</v>
+      </c>
+      <c r="Q20">
+        <v>1.91933916</v>
+      </c>
+      <c r="R20">
+        <v>0.08463841573339925</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>618.047086</v>
+      </c>
+      <c r="C21">
+        <v>16278.8566</v>
+      </c>
+      <c r="D21">
+        <v>1300.65379</v>
+      </c>
+      <c r="E21">
+        <v>1.09654125</v>
+      </c>
+      <c r="F21">
+        <v>2808.373807234247</v>
+      </c>
+      <c r="G21">
+        <v>7762.232640983648</v>
+      </c>
+      <c r="H21">
+        <v>0.002059913974010138</v>
+      </c>
+      <c r="I21">
+        <v>1.190226784088935</v>
+      </c>
+      <c r="J21">
+        <v>683.835638</v>
+      </c>
+      <c r="K21">
+        <v>32464.3802</v>
+      </c>
+      <c r="L21">
+        <v>0.000473376905</v>
+      </c>
+      <c r="M21">
+        <v>3.388004895661858</v>
+      </c>
+      <c r="N21">
+        <v>0.632148081</v>
+      </c>
+      <c r="O21">
+        <v>0.97276821</v>
+      </c>
+      <c r="P21">
+        <v>2.64017386</v>
+      </c>
+      <c r="Q21">
+        <v>1.91933916</v>
+      </c>
+      <c r="R21">
+        <v>0.1570744684043697</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>618.047086</v>
+      </c>
+      <c r="C22">
+        <v>16278.8566</v>
+      </c>
+      <c r="D22">
+        <v>1300.65379</v>
+      </c>
+      <c r="E22">
+        <v>1.09654125</v>
+      </c>
+      <c r="F22">
+        <v>5925.814850775238</v>
+      </c>
+      <c r="G22">
+        <v>71501.36956971881</v>
+      </c>
+      <c r="H22">
+        <v>0.007380434461848233</v>
+      </c>
+      <c r="I22">
+        <v>1.195794710882987</v>
+      </c>
+      <c r="J22">
+        <v>683.835638</v>
+      </c>
+      <c r="K22">
+        <v>32464.3802</v>
+      </c>
+      <c r="L22">
+        <v>0.000473376905</v>
+      </c>
+      <c r="M22">
+        <v>6.673018230597795</v>
+      </c>
+      <c r="N22">
+        <v>0.632148081</v>
+      </c>
+      <c r="O22">
+        <v>0.97276821</v>
+      </c>
+      <c r="P22">
+        <v>2.64017386</v>
+      </c>
+      <c r="Q22">
+        <v>1.91933916</v>
+      </c>
+      <c r="R22">
+        <v>0.2180718093078213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23">
+        <v>915.2774006713952</v>
+      </c>
+      <c r="C23">
+        <v>11775.91311405648</v>
+      </c>
+      <c r="D23">
+        <v>1326.426151798332</v>
+      </c>
+      <c r="E23">
+        <v>1.002264703815759</v>
+      </c>
+      <c r="F23">
+        <v>1916.17561</v>
+      </c>
+      <c r="G23">
+        <v>18874.2408</v>
+      </c>
+      <c r="H23">
+        <v>0.009030179879999999</v>
+      </c>
+      <c r="I23">
+        <v>0.82043334</v>
+      </c>
+      <c r="J23">
+        <v>683.835638</v>
+      </c>
+      <c r="K23">
+        <v>32464.3802</v>
+      </c>
+      <c r="L23">
+        <v>0.000473376905</v>
+      </c>
+      <c r="M23">
+        <v>2.769607722030464</v>
+      </c>
+      <c r="N23">
+        <v>0.632148081</v>
+      </c>
+      <c r="O23">
+        <v>0.97276821</v>
+      </c>
+      <c r="P23">
+        <v>2.64017386</v>
+      </c>
+      <c r="Q23">
+        <v>1.91933916</v>
+      </c>
+      <c r="R23">
+        <v>0.03659199817936004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>922.6874975895607</v>
+      </c>
+      <c r="C24">
+        <v>3895.600454851894</v>
+      </c>
+      <c r="D24">
+        <v>1570.271374575805</v>
+      </c>
+      <c r="E24">
+        <v>1.260786377089267</v>
+      </c>
+      <c r="F24">
+        <v>1916.17561</v>
+      </c>
+      <c r="G24">
+        <v>18874.2408</v>
+      </c>
+      <c r="H24">
+        <v>0.009030179879999999</v>
+      </c>
+      <c r="I24">
+        <v>0.82043334</v>
+      </c>
+      <c r="J24">
+        <v>683.835638</v>
+      </c>
+      <c r="K24">
+        <v>32464.3802</v>
+      </c>
+      <c r="L24">
+        <v>0.000473376905</v>
+      </c>
+      <c r="M24">
+        <v>3.010215655808595</v>
+      </c>
+      <c r="N24">
+        <v>0.632148081</v>
+      </c>
+      <c r="O24">
+        <v>0.97276821</v>
+      </c>
+      <c r="P24">
+        <v>2.64017386</v>
+      </c>
+      <c r="Q24">
+        <v>1.91933916</v>
+      </c>
+      <c r="R24">
+        <v>0.06644238405798533</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>850.3964568275884</v>
+      </c>
+      <c r="C25">
+        <v>18530.57886021734</v>
+      </c>
+      <c r="D25">
+        <v>1259.105281251203</v>
+      </c>
+      <c r="E25">
+        <v>1.066450139776092</v>
+      </c>
+      <c r="F25">
+        <v>1916.17561</v>
+      </c>
+      <c r="G25">
+        <v>18874.2408</v>
+      </c>
+      <c r="H25">
+        <v>0.009030179879999999</v>
+      </c>
+      <c r="I25">
+        <v>0.82043334</v>
+      </c>
+      <c r="J25">
+        <v>683.835638</v>
+      </c>
+      <c r="K25">
+        <v>32464.3802</v>
+      </c>
+      <c r="L25">
+        <v>0.000473376905</v>
+      </c>
+      <c r="M25">
+        <v>2.449919412412467</v>
+      </c>
+      <c r="N25">
+        <v>0.632148081</v>
+      </c>
+      <c r="O25">
+        <v>0.97276821</v>
+      </c>
+      <c r="P25">
+        <v>2.64017386</v>
+      </c>
+      <c r="Q25">
+        <v>1.91933916</v>
+      </c>
+      <c r="R25">
+        <v>0.09177227894500686</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>1144.253250253082</v>
+      </c>
+      <c r="C26">
+        <v>3556.987670811806</v>
+      </c>
+      <c r="D26">
+        <v>2125.362212203578</v>
+      </c>
+      <c r="E26">
+        <v>1.552143097052081</v>
+      </c>
+      <c r="F26">
+        <v>1916.17561</v>
+      </c>
+      <c r="G26">
+        <v>18874.2408</v>
+      </c>
+      <c r="H26">
+        <v>0.009030179879999999</v>
+      </c>
+      <c r="I26">
+        <v>0.82043334</v>
+      </c>
+      <c r="J26">
+        <v>683.835638</v>
+      </c>
+      <c r="K26">
+        <v>32464.3802</v>
+      </c>
+      <c r="L26">
+        <v>0.000473376905</v>
+      </c>
+      <c r="M26">
+        <v>3.834556136164252</v>
+      </c>
+      <c r="N26">
+        <v>0.632148081</v>
+      </c>
+      <c r="O26">
+        <v>0.97276821</v>
+      </c>
+      <c r="P26">
+        <v>2.64017386</v>
+      </c>
+      <c r="Q26">
+        <v>1.91933916</v>
+      </c>
+      <c r="R26">
+        <v>0.0523209738820185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27">
+        <v>1017.989660719986</v>
+      </c>
+      <c r="C27">
+        <v>8345.707833143004</v>
+      </c>
+      <c r="D27">
+        <v>1282.164668430654</v>
+      </c>
+      <c r="E27">
+        <v>1.105716715307594</v>
+      </c>
+      <c r="F27">
+        <v>1916.17561</v>
+      </c>
+      <c r="G27">
+        <v>18874.2408</v>
+      </c>
+      <c r="H27">
+        <v>0.009030179879999999</v>
+      </c>
+      <c r="I27">
+        <v>0.82043334</v>
+      </c>
+      <c r="J27">
+        <v>683.835638</v>
+      </c>
+      <c r="K27">
+        <v>32464.3802</v>
+      </c>
+      <c r="L27">
+        <v>0.000473376905</v>
+      </c>
+      <c r="M27">
+        <v>2.418476715337123</v>
+      </c>
+      <c r="N27">
+        <v>0.632148081</v>
+      </c>
+      <c r="O27">
+        <v>0.97276821</v>
+      </c>
+      <c r="P27">
+        <v>2.64017386</v>
+      </c>
+      <c r="Q27">
+        <v>1.91933916</v>
+      </c>
+      <c r="R27">
+        <v>0.03487596226278313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28">
+        <v>535.4470794184773</v>
+      </c>
+      <c r="C28">
+        <v>6757.470188623383</v>
+      </c>
+      <c r="D28">
+        <v>1000.151401396679</v>
+      </c>
+      <c r="E28">
+        <v>0.9381876771536812</v>
+      </c>
+      <c r="F28">
+        <v>1916.17561</v>
+      </c>
+      <c r="G28">
+        <v>18874.2408</v>
+      </c>
+      <c r="H28">
+        <v>0.009030179879999999</v>
+      </c>
+      <c r="I28">
+        <v>0.82043334</v>
+      </c>
+      <c r="J28">
+        <v>683.835638</v>
+      </c>
+      <c r="K28">
+        <v>32464.3802</v>
+      </c>
+      <c r="L28">
+        <v>0.000473376905</v>
+      </c>
+      <c r="M28">
+        <v>2.572350216960002</v>
+      </c>
+      <c r="N28">
+        <v>0.632148081</v>
+      </c>
+      <c r="O28">
+        <v>0.97276821</v>
+      </c>
+      <c r="P28">
+        <v>2.64017386</v>
+      </c>
+      <c r="Q28">
+        <v>1.91933916</v>
+      </c>
+      <c r="R28">
+        <v>0.1425826654099357</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29">
+        <v>1012.244653997648</v>
+      </c>
+      <c r="C29">
+        <v>7131.08931932542</v>
+      </c>
+      <c r="D29">
+        <v>1411.034577919587</v>
+      </c>
+      <c r="E29">
+        <v>0.9901177396613554</v>
+      </c>
+      <c r="F29">
+        <v>1916.17561</v>
+      </c>
+      <c r="G29">
+        <v>18874.2408</v>
+      </c>
+      <c r="H29">
+        <v>0.009030179879999999</v>
+      </c>
+      <c r="I29">
+        <v>0.82043334</v>
+      </c>
+      <c r="J29">
+        <v>683.835638</v>
+      </c>
+      <c r="K29">
+        <v>32464.3802</v>
+      </c>
+      <c r="L29">
+        <v>0.000473376905</v>
+      </c>
+      <c r="M29">
+        <v>3.035880049469993</v>
+      </c>
+      <c r="N29">
+        <v>0.632148081</v>
+      </c>
+      <c r="O29">
+        <v>0.97276821</v>
+      </c>
+      <c r="P29">
+        <v>2.64017386</v>
+      </c>
+      <c r="Q29">
+        <v>1.91933916</v>
+      </c>
+      <c r="R29">
+        <v>0.0273287707262191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30">
+        <v>868.494471645618</v>
+      </c>
+      <c r="C30">
+        <v>6072.913885074354</v>
+      </c>
+      <c r="D30">
+        <v>1722.88709168595</v>
+      </c>
+      <c r="E30">
+        <v>1.102595922056532</v>
+      </c>
+      <c r="F30">
+        <v>1916.17561</v>
+      </c>
+      <c r="G30">
+        <v>18874.2408</v>
+      </c>
+      <c r="H30">
+        <v>0.009030179879999999</v>
+      </c>
+      <c r="I30">
+        <v>0.82043334</v>
+      </c>
+      <c r="J30">
+        <v>683.835638</v>
+      </c>
+      <c r="K30">
+        <v>32464.3802</v>
+      </c>
+      <c r="L30">
+        <v>0.000473376905</v>
+      </c>
+      <c r="M30">
+        <v>2.95041454206206</v>
+      </c>
+      <c r="N30">
+        <v>0.632148081</v>
+      </c>
+      <c r="O30">
+        <v>0.97276821</v>
+      </c>
+      <c r="P30">
+        <v>2.64017386</v>
+      </c>
+      <c r="Q30">
+        <v>1.91933916</v>
+      </c>
+      <c r="R30">
+        <v>0.05721981404632803</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31">
+        <v>1194.944449027556</v>
+      </c>
+      <c r="C31">
+        <v>7163.712006272184</v>
+      </c>
+      <c r="D31">
+        <v>1281.363040648362</v>
+      </c>
+      <c r="E31">
+        <v>1.316061536826429</v>
+      </c>
+      <c r="F31">
+        <v>1916.17561</v>
+      </c>
+      <c r="G31">
+        <v>18874.2408</v>
+      </c>
+      <c r="H31">
+        <v>0.009030179879999999</v>
+      </c>
+      <c r="I31">
+        <v>0.82043334</v>
+      </c>
+      <c r="J31">
+        <v>683.835638</v>
+      </c>
+      <c r="K31">
+        <v>32464.3802</v>
+      </c>
+      <c r="L31">
+        <v>0.000473376905</v>
+      </c>
+      <c r="M31">
+        <v>2.856443559408071</v>
+      </c>
+      <c r="N31">
+        <v>0.632148081</v>
+      </c>
+      <c r="O31">
+        <v>0.97276821</v>
+      </c>
+      <c r="P31">
+        <v>2.64017386</v>
+      </c>
+      <c r="Q31">
+        <v>1.91933916</v>
+      </c>
+      <c r="R31">
+        <v>0.03727398604885324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32">
+        <v>603.130573938185</v>
+      </c>
+      <c r="C32">
+        <v>6308.276322488617</v>
+      </c>
+      <c r="D32">
+        <v>1361.799653367677</v>
+      </c>
+      <c r="E32">
+        <v>1.091994233417353</v>
+      </c>
+      <c r="F32">
+        <v>1916.17561</v>
+      </c>
+      <c r="G32">
+        <v>18874.2408</v>
+      </c>
+      <c r="H32">
+        <v>0.009030179879999999</v>
+      </c>
+      <c r="I32">
+        <v>0.82043334</v>
+      </c>
+      <c r="J32">
+        <v>683.835638</v>
+      </c>
+      <c r="K32">
+        <v>32464.3802</v>
+      </c>
+      <c r="L32">
+        <v>0.000473376905</v>
+      </c>
+      <c r="M32">
+        <v>3.30619967437256</v>
+      </c>
+      <c r="N32">
+        <v>0.632148081</v>
+      </c>
+      <c r="O32">
+        <v>0.97276821</v>
+      </c>
+      <c r="P32">
+        <v>2.64017386</v>
+      </c>
+      <c r="Q32">
+        <v>1.91933916</v>
+      </c>
+      <c r="R32">
+        <v>0.01982785501807699</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/SM_params.xlsx
+++ b/data/SM_params.xlsx
@@ -1,43 +1,200 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+  <si>
+    <t>A_s</t>
+  </si>
+  <si>
+    <t>Bs</t>
+  </si>
+  <si>
+    <t>C_s</t>
+  </si>
+  <si>
+    <t>N_s</t>
+  </si>
+  <si>
+    <t>A_r</t>
+  </si>
+  <si>
+    <t>B_r</t>
+  </si>
+  <si>
+    <t>C_r</t>
+  </si>
+  <si>
+    <t>N_r</t>
+  </si>
+  <si>
+    <t>A_h</t>
+  </si>
+  <si>
+    <t>B_h</t>
+  </si>
+  <si>
+    <t>C_h</t>
+  </si>
+  <si>
+    <t>F_o</t>
+  </si>
+  <si>
+    <t>A_o</t>
+  </si>
+  <si>
+    <t>B_o</t>
+  </si>
+  <si>
+    <t>C_o</t>
+  </si>
+  <si>
+    <t>N_o</t>
+  </si>
+  <si>
+    <t>rss</t>
+  </si>
+  <si>
+    <t>WT</t>
+  </si>
+  <si>
+    <t>Output1</t>
+  </si>
+  <si>
+    <t>Output10</t>
+  </si>
+  <si>
+    <t>Output2</t>
+  </si>
+  <si>
+    <t>Output3</t>
+  </si>
+  <si>
+    <t>Output4</t>
+  </si>
+  <si>
+    <t>Output5</t>
+  </si>
+  <si>
+    <t>Output6</t>
+  </si>
+  <si>
+    <t>Output7</t>
+  </si>
+  <si>
+    <t>Output8</t>
+  </si>
+  <si>
+    <t>Output9</t>
+  </si>
+  <si>
+    <t>Regulator1</t>
+  </si>
+  <si>
+    <t>Regulator10</t>
+  </si>
+  <si>
+    <t>Regulator2</t>
+  </si>
+  <si>
+    <t>Regulator3</t>
+  </si>
+  <si>
+    <t>Regulator4</t>
+  </si>
+  <si>
+    <t>Regulator5</t>
+  </si>
+  <si>
+    <t>Regulator6</t>
+  </si>
+  <si>
+    <t>Regulator7</t>
+  </si>
+  <si>
+    <t>Regulator8</t>
+  </si>
+  <si>
+    <t>Regulator9</t>
+  </si>
+  <si>
+    <t>Sensor1</t>
+  </si>
+  <si>
+    <t>Sensor10</t>
+  </si>
+  <si>
+    <t>Sensor2</t>
+  </si>
+  <si>
+    <t>Sensor3</t>
+  </si>
+  <si>
+    <t>Sensor4</t>
+  </si>
+  <si>
+    <t>Sensor5</t>
+  </si>
+  <si>
+    <t>Sensor6</t>
+  </si>
+  <si>
+    <t>Sensor7</t>
+  </si>
+  <si>
+    <t>Sensor8</t>
+  </si>
+  <si>
+    <t>Sensor9</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,93 +203,62 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -141,10 +267,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -182,69 +308,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -268,54 +396,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -325,7 +452,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -334,7 +461,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -343,7 +470,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -351,10 +478,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -383,7 +510,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -396,13 +523,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -420,1905 +546,1827 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="13.005" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>As</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Bs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Cs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Ns</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Ar</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Br</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Cr</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Nr</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Ah</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Bh</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Ch</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Fo</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Ao</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Bo</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Co</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>rss</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>WT</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4">
         <v>618.047086</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="4">
         <v>16278.8566</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="4">
         <v>1300.65379</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="4">
         <v>1.096541</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="4">
         <v>1916.17561</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="4">
         <v>18874.2408</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="4">
         <v>0.00903</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="4">
         <v>0.820433</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="4">
         <v>683.835638</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="4">
         <v>32464.3802</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" s="4">
         <v>0.000473</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="4">
         <v>2.821352</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2" s="4">
         <v>0.632148</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="4">
         <v>0.972768</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="4">
         <v>2.640174</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="4">
         <v>1.919339</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="4">
         <v>0.07860279232804895</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Output1</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4">
         <v>618.047086</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="4">
         <v>16278.8566</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="4">
         <v>1300.65379</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="4">
         <v>1.096541</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="4">
         <v>1916.17561</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="4">
         <v>18874.2408</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="4">
         <v>0.00903</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="4">
         <v>0.820433</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="4">
         <v>689.2822477395698</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="4">
         <v>31746.59696823015</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="4">
         <v>0.0005551558674141972</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" s="4">
         <v>2.689409565405411</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3" s="4">
         <v>0.4993801493222862</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" s="4">
         <v>1.139056281629416</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3" s="4">
         <v>2.270568779969166</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3" s="4">
         <v>1.880618664619607</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3" s="4">
         <v>0.07192946781607226</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Output10</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4">
         <v>618.047086</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="4">
         <v>16278.8566</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="4">
         <v>1300.65379</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="4">
         <v>1.096541</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="4">
         <v>1916.17561</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="4">
         <v>18874.2408</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="4">
         <v>0.00903</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="4">
         <v>0.820433</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="4">
         <v>683.5249235872618</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4" s="4">
         <v>33061.95415695049</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" s="4">
         <v>0.000513832634796087</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" s="4">
         <v>1.503080738239168</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4" s="4">
         <v>0.595488014441855</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" s="4">
         <v>0.8502513544521773</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="4">
         <v>3.120843296685268</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="4">
         <v>1.435020430291293</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="4">
         <v>0.09637449230408174</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Output2</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4">
         <v>618.047086</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="4">
         <v>16278.8566</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="4">
         <v>1300.65379</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="4">
         <v>1.096541</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="4">
         <v>1916.17561</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="4">
         <v>18874.2408</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="4">
         <v>0.00903</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="4">
         <v>0.820433</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="4">
         <v>736.5255154238248</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="4">
         <v>34404.09179431232</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="4">
         <v>0.0004504109622747673</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="4">
         <v>2.977120995629471</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" s="4">
         <v>0.6469351386183351</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="4">
         <v>0.968133868881929</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="4">
         <v>2.981128773118941</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="4">
         <v>1.259245718057263</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="4">
         <v>0.5802069859853585</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Output3</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4">
         <v>618.047086</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="4">
         <v>16278.8566</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="4">
         <v>1300.65379</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="4">
         <v>1.096541</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="4">
         <v>1916.17561</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="4">
         <v>18874.2408</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="4">
         <v>0.00903</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="4">
         <v>0.820433</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="4">
         <v>559.6770455721271</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="4">
         <v>29206.28500466532</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="4">
         <v>0.0005341023226841934</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="4">
         <v>2.886253356460796</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6" s="4">
         <v>0.5920312119440718</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="4">
         <v>1.038884870984681</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="4">
         <v>2.651996979130034</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="4">
         <v>2.041522462905063</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="4">
         <v>0.1177678210110367</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Output4</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4">
         <v>618.047086</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="4">
         <v>16278.8566</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="4">
         <v>1300.65379</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="4">
         <v>1.096541</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="4">
         <v>1916.17561</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="4">
         <v>18874.2408</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="4">
         <v>0.00903</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="4">
         <v>0.820433</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="4">
         <v>632.5701524254464</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="4">
         <v>28323.89321608773</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" s="4">
         <v>0.0005347529359844164</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="4">
         <v>2.356280937593078</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7" s="4">
         <v>0.5924979892349382</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" s="4">
         <v>1.083317701337656</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7" s="4">
         <v>2.071802491405842</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7" s="4">
         <v>1.79182135786462</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7" s="4">
         <v>0.08459291124441849</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Output5</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4">
         <v>618.047086</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="4">
         <v>16278.8566</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="4">
         <v>1300.65379</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="4">
         <v>1.096541</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="4">
         <v>1916.17561</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="4">
         <v>18874.2408</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="4">
         <v>0.00903</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="4">
         <v>0.820433</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="4">
         <v>651.3662577381474</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="4">
         <v>33386.41655963543</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" s="4">
         <v>0.0004272186432152519</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="4">
         <v>2.503848102520157</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8" s="4">
         <v>0.4407059970838361</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" s="4">
         <v>1.056300090975702</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8" s="4">
         <v>2.552280159286941</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8" s="4">
         <v>1.945267120113701</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8" s="4">
         <v>0.09973130367067996</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Output6</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4">
         <v>618.047086</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="4">
         <v>16278.8566</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="4">
         <v>1300.65379</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="4">
         <v>1.096541</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="4">
         <v>1916.17561</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="4">
         <v>18874.2408</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="4">
         <v>0.00903</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="4">
         <v>0.820433</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="4">
         <v>650.1377668821847</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="4">
         <v>30889.92492311114</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" s="4">
         <v>0.0005491767537136793</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="4">
         <v>2.789857328331308</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9" s="4">
         <v>0.5499697235982985</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9" s="4">
         <v>0.9640684752261328</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9" s="4">
         <v>2.430744399028329</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="4">
         <v>1.912666950180607</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="4">
         <v>0.08942919023790676</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Output7</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4">
         <v>618.047086</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="4">
         <v>16278.8566</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="4">
         <v>1300.65379</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="4">
         <v>1.096541</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="4">
         <v>1916.17561</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="4">
         <v>18874.2408</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="4">
         <v>0.00903</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="4">
         <v>0.820433</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="4">
         <v>751.9950225895263</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="4">
         <v>37708.04350042471</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10" s="4">
         <v>0.0004462344695609219</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="4">
         <v>2.529995445147745</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10" s="4">
         <v>0.661075517234309</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10" s="4">
         <v>0.8923591316415288</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10" s="4">
         <v>2.719735637788641</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10" s="4">
         <v>1.620446648374232</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10" s="4">
         <v>0.0743551512297872</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Output8</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4">
         <v>618.047086</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="4">
         <v>16278.8566</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="4">
         <v>1300.65379</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="4">
         <v>1.096541</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="4">
         <v>1916.17561</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="4">
         <v>18874.2408</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="4">
         <v>0.00903</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="4">
         <v>0.820433</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="4">
         <v>874.7211067331552</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="4">
         <v>26766.87618881957</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" s="4">
         <v>0.0004677212207872619</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="4">
         <v>2.489135737264345</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11" s="4">
         <v>0.6395743564217025</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="4">
         <v>0.957207089447172</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11" s="4">
         <v>3.013387191471769</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" s="4">
         <v>1.336168001563325</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11" s="4">
         <v>0.1414977088979236</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Output9</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="4">
         <v>618.047086</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="4">
         <v>16278.8566</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="4">
         <v>1300.65379</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="4">
         <v>1.096541</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="4">
         <v>1916.17561</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="4">
         <v>18874.2408</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="4">
         <v>0.00903</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="4">
         <v>0.820433</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" s="4">
         <v>729.7033775045929</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="4">
         <v>32326.63222390829</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12" s="4">
         <v>0.0004499621613519343</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="4">
         <v>2.727349539000665</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12" s="4">
         <v>0.6180765054412494</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="4">
         <v>0.9255331737757608</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12" s="4">
         <v>2.830332833471049</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" s="4">
         <v>1.60775481965138</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12" s="4">
         <v>0.0818475630280068</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Regulator1</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="4">
         <v>618.047086</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="4">
         <v>16278.8566</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="4">
         <v>1300.65379</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="4">
         <v>1.096541</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="4">
         <v>2313.26511666183</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="4">
         <v>21516.12198556601</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="4">
         <v>0.008755474290894301</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="4">
         <v>0.1236516478157224</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="4">
         <v>683.835638</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="4">
         <v>32464.3802</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13" s="4">
         <v>0.000473</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="4">
         <v>3.408122449213803</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13" s="4">
         <v>0.632148</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="4">
         <v>0.972768</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13" s="4">
         <v>2.640174</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" s="4">
         <v>1.919339</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13" s="4">
         <v>1.045338049087286</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Regulator10</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="4">
         <v>618.047086</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="4">
         <v>16278.8566</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="4">
         <v>1300.65379</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="4">
         <v>1.096541</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="4">
         <v>2193.183012653663</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="4">
         <v>20723.89144748833</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.008295136035983031</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="H14" s="4">
+        <v>0.00829513603598303</v>
+      </c>
+      <c r="I14" s="4">
         <v>0.506041794483401</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" s="4">
         <v>683.835638</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="4">
         <v>32464.3802</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14" s="4">
         <v>0.000473</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="4">
         <v>2.61734704435714</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14" s="4">
         <v>0.632148</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="4">
         <v>0.972768</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14" s="4">
         <v>2.640174</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" s="4">
         <v>1.919339</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14" s="4">
         <v>0.1562632622584675</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Regulator2</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="4">
         <v>618.047086</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="4">
         <v>16278.8566</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="4">
         <v>1300.65379</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="4">
         <v>1.096541</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="4">
         <v>2097.537275402843</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="4">
         <v>21904.00899555885</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="4">
         <v>0.007764645403629582</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" s="4">
         <v>0.508926558854053</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15" s="4">
         <v>683.835638</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15" s="4">
         <v>32464.3802</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15" s="4">
         <v>0.000473</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" s="4">
         <v>4.451297932973066</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15" s="4">
         <v>0.632148</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15" s="4">
         <v>0.972768</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15" s="4">
         <v>2.640174</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15" s="4">
         <v>1.919339</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15" s="4">
         <v>0.2043319657987268</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Regulator3</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="4">
         <v>618.047086</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="4">
         <v>16278.8566</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="4">
         <v>1300.65379</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="4">
         <v>1.096541</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="4">
         <v>2416.802231038357</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="4">
         <v>21613.76247573122</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="4">
         <v>0.007846865152027746</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" s="4">
         <v>0.4346117099010598</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16" s="4">
         <v>683.835638</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16" s="4">
         <v>32464.3802</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16" s="4">
         <v>0.000473</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16" s="4">
         <v>3.28592819008683</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16" s="4">
         <v>0.632148</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16" s="4">
         <v>0.972768</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16" s="4">
         <v>2.640174</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16" s="4">
         <v>1.919339</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16" s="4">
         <v>0.4191067553439456</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Regulator4</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="4">
         <v>618.047086</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="4">
         <v>16278.8566</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="4">
         <v>1300.65379</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="4">
         <v>1.096541</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="4">
         <v>2344.166447400942</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="4">
         <v>16439.75002483818</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="4">
         <v>0.00775437846589663</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" s="4">
         <v>0.4497559080901967</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17" s="4">
         <v>683.835638</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17" s="4">
         <v>32464.3802</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17" s="4">
         <v>0.000473</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17" s="4">
         <v>4.196959468577511</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17" s="4">
         <v>0.632148</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17" s="4">
         <v>0.972768</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17" s="4">
         <v>2.640174</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17" s="4">
         <v>1.919339</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17" s="4">
         <v>0.2737244442908555</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Regulator5</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4">
         <v>618.047086</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="4">
         <v>16278.8566</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="4">
         <v>1300.65379</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="4">
         <v>1.096541</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="4">
         <v>2622.356339065551</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="4">
         <v>20602.93543707943</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="4">
         <v>0.006652620743634825</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" s="4">
         <v>0.5594797013441035</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18" s="4">
         <v>683.835638</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18" s="4">
         <v>32464.3802</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18" s="4">
         <v>0.000473</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" s="4">
         <v>4.724579220776342</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18" s="4">
         <v>0.632148</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18" s="4">
         <v>0.972768</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18" s="4">
         <v>2.640174</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18" s="4">
         <v>1.919339</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18" s="4">
         <v>0.257760464250042</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Regulator6</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="4">
         <v>618.047086</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="4">
         <v>16278.8566</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="4">
         <v>1300.65379</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="4">
         <v>1.096541</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="4">
         <v>2223.968934540431</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="4">
         <v>20334.93796287929</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19" s="4">
         <v>0.008590611165124946</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" s="4">
         <v>0.4013751783641224</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19" s="4">
         <v>683.835638</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19" s="4">
         <v>32464.3802</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19" s="4">
         <v>0.000473</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19" s="4">
         <v>3.578584054956913</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19" s="4">
         <v>0.632148</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19" s="4">
         <v>0.972768</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19" s="4">
         <v>2.640174</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19" s="4">
         <v>1.919339</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19" s="4">
         <v>1.246573309213686</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Regulator7</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="4">
         <v>618.047086</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="4">
         <v>16278.8566</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="4">
         <v>1300.65379</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="4">
         <v>1.096541</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="4">
         <v>2088.280821915991</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="4">
         <v>20667.80893297751</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20" s="4">
         <v>0.008344621353044764</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" s="4">
         <v>0.5837155042005642</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20" s="4">
         <v>683.835638</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20" s="4">
         <v>32464.3802</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20" s="4">
         <v>0.000473</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" s="4">
         <v>4.744601937811966</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20" s="4">
         <v>0.632148</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20" s="4">
         <v>0.972768</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20" s="4">
         <v>2.640174</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20" s="4">
         <v>1.919339</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20" s="4">
         <v>0.1134325048968282</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Regulator8</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="4">
         <v>618.047086</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="4">
         <v>16278.8566</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="4">
         <v>1300.65379</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="4">
         <v>1.096541</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="4">
         <v>2462.933249698282</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="4">
         <v>15667.31816388165</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21" s="4">
         <v>0.008054407999314119</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" s="4">
         <v>0.7683502049009838</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21" s="4">
         <v>683.835638</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21" s="4">
         <v>32464.3802</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21" s="4">
         <v>0.000473</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21" s="4">
         <v>3.463565838883199</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21" s="4">
         <v>0.632148</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21" s="4">
         <v>0.972768</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P21" s="4">
         <v>2.640174</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="4">
         <v>1.919339</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="4">
         <v>0.1608474673687206</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Regulator9</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="4">
         <v>618.047086</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="4">
         <v>16278.8566</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="4">
         <v>1300.65379</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="4">
         <v>1.096541</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="4">
         <v>1877.340028373602</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="4">
         <v>22037.10027101415</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22" s="4">
         <v>0.007168174320201816</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22" s="4">
         <v>0.4178470863879049</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22" s="4">
         <v>683.835638</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22" s="4">
         <v>32464.3802</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22" s="4">
         <v>0.000473</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22" s="4">
         <v>3.70597586914462</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22" s="4">
         <v>0.632148</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22" s="4">
         <v>0.972768</v>
       </c>
-      <c r="P22" t="n">
+      <c r="P22" s="4">
         <v>2.640174</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22" s="4">
         <v>1.919339</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R22" s="4">
         <v>1.070845467453242</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Sensor1</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="4">
         <v>726.0454677553662</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="4">
         <v>11951.26503457541</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="4">
         <v>1521.614005514472</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="4">
         <v>0.9302974698435238</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="4">
         <v>1916.17561</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="4">
         <v>18874.2408</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23" s="4">
         <v>0.00903</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" s="4">
         <v>0.820433</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23" s="4">
         <v>683.835638</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23" s="4">
         <v>32464.3802</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23" s="4">
         <v>0.000473</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23" s="4">
         <v>2.812672567172811</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23" s="4">
         <v>0.632148</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23" s="4">
         <v>0.972768</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P23" s="4">
         <v>2.640174</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23" s="4">
         <v>1.919339</v>
       </c>
-      <c r="R23" t="n">
+      <c r="R23" s="4">
         <v>0.05633180829519012</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Sensor10</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
+      <c r="A24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="4">
         <v>667.1313667594111</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="4">
         <v>4043.310869709827</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="4">
         <v>1491.107803840946</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="4">
         <v>1.185191724777698</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" s="4">
         <v>1916.17561</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="4">
         <v>18874.2408</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24" s="4">
         <v>0.00903</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24" s="4">
         <v>0.820433</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24" s="4">
         <v>683.835638</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24" s="4">
         <v>32464.3802</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24" s="4">
         <v>0.000473</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24" s="4">
         <v>3.225623343094955</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24" s="4">
         <v>0.632148</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O24" s="4">
         <v>0.972768</v>
       </c>
-      <c r="P24" t="n">
+      <c r="P24" s="4">
         <v>2.640174</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="Q24" s="4">
         <v>1.919339</v>
       </c>
-      <c r="R24" t="n">
+      <c r="R24" s="4">
         <v>0.1511585987970814</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Sensor2</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
+      <c r="A25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="4">
         <v>718.1940296146095</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="4">
         <v>18449.16385703877</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="4">
         <v>1362.2056994518</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="4">
         <v>1.030707522065957</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="4">
         <v>1916.17561</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="4">
         <v>18874.2408</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25" s="4">
         <v>0.00903</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25" s="4">
         <v>0.820433</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25" s="4">
         <v>683.835638</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25" s="4">
         <v>32464.3802</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25" s="4">
         <v>0.000473</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25" s="4">
         <v>2.415491070428537</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25" s="4">
         <v>0.632148</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O25" s="4">
         <v>0.972768</v>
       </c>
-      <c r="P25" t="n">
+      <c r="P25" s="4">
         <v>2.640174</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q25" s="4">
         <v>1.919339</v>
       </c>
-      <c r="R25" t="n">
+      <c r="R25" s="4">
         <v>0.1032402007043623</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Sensor3</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
+      <c r="A26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="4">
         <v>708.5942874182545</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="4">
         <v>4053.469218950933</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="4">
         <v>1266.756345490581</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="4">
         <v>1.041850580153931</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="4">
         <v>1916.17561</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="4">
         <v>18874.2408</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26" s="4">
         <v>0.00903</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26" s="4">
         <v>0.820433</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26" s="4">
         <v>683.835638</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26" s="4">
         <v>32464.3802</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26" s="4">
         <v>0.000473</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26" s="4">
         <v>2.892939388346655</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26" s="4">
         <v>0.632148</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O26" s="4">
         <v>0.972768</v>
       </c>
-      <c r="P26" t="n">
+      <c r="P26" s="4">
         <v>2.640174</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q26" s="4">
         <v>1.919339</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R26" s="4">
         <v>0.5558347818545112</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Sensor4</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
+      <c r="A27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="4">
         <v>682.1799381831918</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="4">
         <v>8651.084653024365</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="4">
         <v>1370.290415034282</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27" s="4">
         <v>1.006570981359811</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" s="4">
         <v>1916.17561</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="4">
         <v>18874.2408</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27" s="4">
         <v>0.00903</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27" s="4">
         <v>0.820433</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27" s="4">
         <v>683.835638</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27" s="4">
         <v>32464.3802</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27" s="4">
         <v>0.000473</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27" s="4">
         <v>2.597406753161502</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27" s="4">
         <v>0.632148</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O27" s="4">
         <v>0.972768</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P27" s="4">
         <v>2.640174</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="Q27" s="4">
         <v>1.919339</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R27" s="4">
         <v>0.1058738369930609</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Sensor5</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
+      <c r="A28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="4">
         <v>548.5822019109996</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="4">
         <v>6211.933532457768</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="4">
         <v>1448.90257274906</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" s="4">
         <v>1.228640816575565</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" s="4">
         <v>1916.17561</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="4">
         <v>18874.2408</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28" s="4">
         <v>0.00903</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28" s="4">
         <v>0.820433</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28" s="4">
         <v>683.835638</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28" s="4">
         <v>32464.3802</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28" s="4">
         <v>0.000473</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28" s="4">
         <v>2.886859302003579</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28" s="4">
         <v>0.632148</v>
       </c>
-      <c r="O28" t="n">
+      <c r="O28" s="4">
         <v>0.972768</v>
       </c>
-      <c r="P28" t="n">
+      <c r="P28" s="4">
         <v>2.640174</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="Q28" s="4">
         <v>1.919339</v>
       </c>
-      <c r="R28" t="n">
+      <c r="R28" s="4">
         <v>0.1932830949189986</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Sensor6</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
+      <c r="A29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="4">
         <v>738.5134525067092</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="4">
         <v>7483.140732172258</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="4">
         <v>1297.943695803234</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29" s="4">
         <v>1.054671530478059</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" s="4">
         <v>1916.17561</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="4">
         <v>18874.2408</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29" s="4">
         <v>0.00903</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29" s="4">
         <v>0.820433</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29" s="4">
         <v>683.835638</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29" s="4">
         <v>32464.3802</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29" s="4">
         <v>0.000473</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29" s="4">
         <v>3.113219182590974</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N29" s="4">
         <v>0.632148</v>
       </c>
-      <c r="O29" t="n">
+      <c r="O29" s="4">
         <v>0.972768</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P29" s="4">
         <v>2.640174</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q29" s="4">
         <v>1.919339</v>
       </c>
-      <c r="R29" t="n">
+      <c r="R29" s="4">
         <v>0.1166282037729931</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>Sensor7</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
+      <c r="A30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="4">
         <v>705.4895564053177</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="4">
         <v>6579.606981450102</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="4">
         <v>1300.141430107898</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30" s="4">
         <v>1.101628611200301</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30" s="4">
         <v>1916.17561</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="4">
         <v>18874.2408</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30" s="4">
         <v>0.00903</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30" s="4">
         <v>0.820433</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30" s="4">
         <v>683.835638</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30" s="4">
         <v>32464.3802</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30" s="4">
         <v>0.000473</v>
       </c>
-      <c r="M30" t="n">
+      <c r="M30" s="4">
         <v>3.015629272011675</v>
       </c>
-      <c r="N30" t="n">
+      <c r="N30" s="4">
         <v>0.632148</v>
       </c>
-      <c r="O30" t="n">
+      <c r="O30" s="4">
         <v>0.972768</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P30" s="4">
         <v>2.640174</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="Q30" s="4">
         <v>1.919339</v>
       </c>
-      <c r="R30" t="n">
+      <c r="R30" s="4">
         <v>0.1108611260609851</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>Sensor8</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
+      <c r="A31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="4">
         <v>678.9005773683723</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="4">
         <v>7946.884021920225</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="4">
         <v>1430.327142170772</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31" s="4">
         <v>0.9541633278435521</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31" s="4">
         <v>1916.17561</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="4">
         <v>18874.2408</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31" s="4">
         <v>0.00903</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31" s="4">
         <v>0.820433</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31" s="4">
         <v>683.835638</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31" s="4">
         <v>32464.3802</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31" s="4">
         <v>0.000473</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31" s="4">
         <v>3.16031325861555</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N31" s="4">
         <v>0.632148</v>
       </c>
-      <c r="O31" t="n">
+      <c r="O31" s="4">
         <v>0.972768</v>
       </c>
-      <c r="P31" t="n">
+      <c r="P31" s="4">
         <v>2.640174</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q31" s="4">
         <v>1.919339</v>
       </c>
-      <c r="R31" t="n">
+      <c r="R31" s="4">
         <v>0.1806018870801871</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>Sensor9</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
+      <c r="A32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="4">
         <v>580.703389507237</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="4">
         <v>6235.914497300224</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="4">
         <v>1236.436223295893</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32" s="4">
         <v>1.163352354765083</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32" s="4">
         <v>1916.17561</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32" s="4">
         <v>18874.2408</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32" s="4">
         <v>0.00903</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32" s="4">
         <v>0.820433</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32" s="4">
         <v>683.835638</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32" s="4">
         <v>32464.3802</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32" s="4">
         <v>0.000473</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M32" s="4">
         <v>3.207818959438392</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N32" s="4">
         <v>0.632148</v>
       </c>
-      <c r="O32" t="n">
+      <c r="O32" s="4">
         <v>0.972768</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P32" s="4">
         <v>2.640174</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q32" s="4">
         <v>1.919339</v>
       </c>
-      <c r="R32" t="n">
+      <c r="R32" s="4">
         <v>0.04036693014251876</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>